--- a/experiment/baseline.xlsx
+++ b/experiment/baseline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>ml-1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,7 +219,1357 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="150">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,9 +2130,29 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="U10" s="2">
+        <v>0.863317</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.80286500000000005</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.795686</v>
+      </c>
+      <c r="X10" s="2"/>
       <c r="AA10">
         <v>1</v>
       </c>
+      <c r="AB10" s="2">
+        <v>0.84599000000000002</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.78675300000000004</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.77964599999999995</v>
+      </c>
+      <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F11">
@@ -818,9 +2188,29 @@
       <c r="T11">
         <v>2</v>
       </c>
+      <c r="U11" s="2">
+        <v>0.86504400000000004</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.80311100000000002</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.79227099999999995</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="AA11">
         <v>2</v>
       </c>
+      <c r="AB11" s="2">
+        <v>0.84768299999999996</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0.785964</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0.77844599999999997</v>
+      </c>
+      <c r="AE11" s="2"/>
     </row>
     <row r="12" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F12">
@@ -856,9 +2246,29 @@
       <c r="T12">
         <v>3</v>
       </c>
+      <c r="U12" s="2">
+        <v>0.86414899999999994</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.80318999999999996</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.79381199999999996</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="AA12">
         <v>3</v>
       </c>
+      <c r="AB12" s="2">
+        <v>0.84626400000000002</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0.78673800000000005</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0.77855300000000005</v>
+      </c>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F13">
@@ -894,9 +2304,29 @@
       <c r="T13">
         <v>4</v>
       </c>
+      <c r="U13" s="2">
+        <v>0.86224000000000001</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.80131600000000003</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.792879</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="AA13">
         <v>4</v>
       </c>
+      <c r="AB13" s="2">
+        <v>0.84457899999999997</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0.78698400000000002</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0.77853499999999998</v>
+      </c>
+      <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F14">
@@ -932,9 +2362,29 @@
       <c r="T14">
         <v>5</v>
       </c>
+      <c r="U14" s="2">
+        <v>0.86597900000000005</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.80037599999999998</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.79783700000000002</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="AA14">
         <v>5</v>
       </c>
+      <c r="AB14" s="2">
+        <v>0.84567999999999999</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0.78659199999999996</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0.77828699999999995</v>
+      </c>
+      <c r="AE14" s="2"/>
     </row>
     <row r="15" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
@@ -978,17 +2428,35 @@
       <c r="T15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="U15" s="3">
+        <f>AVERAGE(U10:U14)</f>
+        <v>0.86414579999999996</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" ref="V15:W15" si="1">AVERAGE(V10:V14)</f>
+        <v>0.80217159999999998</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79449700000000001</v>
+      </c>
+      <c r="X15" s="3"/>
       <c r="AA15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AB15" s="3">
+        <f>AVERAGE(AB10:AB14)</f>
+        <v>0.8460392000000001</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" ref="AC15:AD15" si="2">AVERAGE(AC10:AC14)</f>
+        <v>0.78660619999999992</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77869339999999987</v>
+      </c>
+      <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
@@ -999,15 +2467,15 @@
         <v>1.2552779373509245E-3</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16:J16" si="1">STDEV(H10:H14)</f>
+        <f t="shared" ref="H16:J16" si="3">STDEV(H10:H14)</f>
         <v>4.0369790685608475E-4</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2758601473857585E-4</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0598665005286648E-4</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1018,31 +2486,49 @@
         <v>1.4958023599393286E-3</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:Q16" si="2">STDEV(O10:O14)</f>
+        <f t="shared" ref="O16:Q16" si="4">STDEV(O10:O14)</f>
         <v>4.3630803338924558E-4</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8684712742892473E-4</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4463505799079543E-4</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="U16" s="3">
+        <f>STDEV(U10:U14)</f>
+        <v>1.4565694971404759E-3</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" ref="V16:W16" si="5">STDEV(V10:V14)</f>
+        <v>1.2606194112419558E-3</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2699970264297934E-3</v>
+      </c>
+      <c r="X16" s="3"/>
       <c r="AA16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AB16" s="3">
+        <f>STDEV(AB10:AB14)</f>
+        <v>1.1198485165414102E-3</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" ref="AC16:AD16" si="6">STDEV(AC10:AC14)</f>
+        <v>3.8544675378061053E-4</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="6"/>
+        <v>5.4282068862561601E-4</v>
+      </c>
+      <c r="AE16" s="3"/>
     </row>
     <row r="20" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -1170,8 +2656,27 @@
       <c r="T22">
         <v>1</v>
       </c>
+      <c r="U22" s="2">
+        <v>0.66872100000000001</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.61580900000000005</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.60751900000000003</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="AA22">
         <v>1</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0.66632000000000002</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.60406400000000005</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0.59483699999999995</v>
       </c>
     </row>
     <row r="23" spans="6:31" x14ac:dyDescent="0.2">
@@ -1208,8 +2713,27 @@
       <c r="T23">
         <v>2</v>
       </c>
+      <c r="U23" s="2">
+        <v>0.66455500000000001</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.61653400000000003</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.59946500000000003</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="AA23">
         <v>2</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.66705999999999999</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.60359399999999996</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0.59386399999999995</v>
       </c>
     </row>
     <row r="24" spans="6:31" x14ac:dyDescent="0.2">
@@ -1246,8 +2770,27 @@
       <c r="T24">
         <v>3</v>
       </c>
+      <c r="U24" s="2">
+        <v>0.67120199999999997</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.60869700000000004</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.59887299999999999</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="AA24">
         <v>3</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0.66663499999999998</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0.60379700000000003</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0.59409999999999996</v>
       </c>
     </row>
     <row r="25" spans="6:31" x14ac:dyDescent="0.2">
@@ -1284,8 +2827,27 @@
       <c r="T25">
         <v>4</v>
       </c>
+      <c r="U25" s="2">
+        <v>0.66524899999999998</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.61207800000000001</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0.60283699999999996</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="AA25">
         <v>4</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0.66542999999999997</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0.60416199999999998</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0.59405399999999997</v>
       </c>
     </row>
     <row r="26" spans="6:31" x14ac:dyDescent="0.2">
@@ -1322,8 +2884,27 @@
       <c r="T26">
         <v>5</v>
       </c>
+      <c r="U26" s="2">
+        <v>0.66735500000000003</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0.61013399999999995</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0.59950899999999996</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="AA26">
         <v>5</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0.66528699999999996</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0.60406099999999996</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0.59363699999999997</v>
       </c>
     </row>
     <row r="27" spans="6:31" x14ac:dyDescent="0.2">
@@ -1335,15 +2916,15 @@
         <v>0.68157619999999997</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" ref="H27:J27" si="3">AVERAGE(H22:H26)</f>
+        <f t="shared" ref="H27:J27" si="7">AVERAGE(H22:H26)</f>
         <v>0.63110619999999995</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.62286599999999992</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.68217019999999995</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -1354,30 +2935,48 @@
         <v>0.66090599999999999</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" ref="O27:Q27" si="4">AVERAGE(O22:O26)</f>
+        <f t="shared" ref="O27:Q27" si="8">AVERAGE(O22:O26)</f>
         <v>0.60680139999999994</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.59711619999999999</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.64809280000000002</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+      <c r="U27" s="3">
+        <f>AVERAGE(U22:U26)</f>
+        <v>0.66741640000000002</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" ref="V27:W27" si="9">AVERAGE(V22:V26)</f>
+        <v>0.61265040000000004</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="9"/>
+        <v>0.60164059999999997</v>
+      </c>
+      <c r="X27" s="3"/>
       <c r="AA27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AB27" s="3">
+        <f>AVERAGE(AB22:AB26)</f>
+        <v>0.66614640000000003</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" ref="AC27:AD27" si="10">AVERAGE(AC22:AC26)</f>
+        <v>0.60393560000000002</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.59409840000000003</v>
+      </c>
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="6:31" x14ac:dyDescent="0.2">
@@ -1389,15 +2988,15 @@
         <v>7.6355333801900638E-4</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:J28" si="5">STDEV(H22:H26)</f>
+        <f t="shared" ref="H28:J28" si="11">STDEV(H22:H26)</f>
         <v>2.7926904590374756E-4</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.7043555444907781E-4</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.7992415068580529E-4</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -1408,30 +3007,48 @@
         <v>1.0459605633101163E-3</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" ref="O28:Q28" si="6">STDEV(O22:O26)</f>
+        <f t="shared" ref="O28:Q28" si="12">STDEV(O22:O26)</f>
         <v>2.2603384702296408E-4</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.2356560385801936E-4</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.5907136763099384E-4</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="U28" s="3">
+        <f>STDEV(U22:U26)</f>
+        <v>2.688947340503334E-3</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" ref="V28:W28" si="13">STDEV(V22:V26)</f>
+        <v>3.4405081456087413E-3</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="13"/>
+        <v>3.6374277724788018E-3</v>
+      </c>
+      <c r="X28" s="3"/>
       <c r="AA28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AB28" s="3">
+        <f>STDEV(AB22:AB26)</f>
+        <v>7.6735409036507972E-4</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" ref="AC28:AD28" si="14">STDEV(AC22:AC26)</f>
+        <v>2.3418432910850791E-4</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="14"/>
+        <v>4.5148012137855508E-4</v>
+      </c>
       <c r="AE28" s="1"/>
     </row>
   </sheetData>
@@ -1455,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1581,13 +3198,13 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.84879599999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0.78289600000000004</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>0.77024999999999999</v>
       </c>
       <c r="M10">
@@ -1640,13 +3257,13 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.84752300000000003</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.78225699999999998</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.76944699999999999</v>
       </c>
       <c r="M11">
@@ -1699,13 +3316,13 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.84861900000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>0.78245699999999996</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>0.76938099999999998</v>
       </c>
       <c r="M12">
@@ -1758,13 +3375,13 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.84671600000000002</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.78306900000000002</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0.76930200000000004</v>
       </c>
       <c r="M13">
@@ -1817,13 +3434,13 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.84836400000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.78243700000000005</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>0.76909799999999995</v>
       </c>
       <c r="M14">
@@ -1876,15 +3493,15 @@
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <f>AVERAGE(G10:G14)</f>
         <v>0.84800359999999997</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" ref="H15:I15" si="0">AVERAGE(H10:H14)</f>
         <v>0.78262319999999996</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>0.76949560000000006</v>
       </c>
@@ -1939,15 +3556,15 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <f>STDEV(G10:G14)</f>
         <v>8.6968287323597505E-4</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f t="shared" ref="H16:I16" si="1">STDEV(H10:H14)</f>
         <v>3.4261961414958552E-4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>4.4163933248749914E-4</v>
       </c>
@@ -4025,49 +5642,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="14" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="13" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="12" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="11" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="10" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="9" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="8" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="7" priority="23" percent="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="23" percent="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="6" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="5" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W59">
-    <cfRule type="top10" dxfId="4" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:X59">
-    <cfRule type="top10" dxfId="3" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y59">
-    <cfRule type="top10" dxfId="2" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z59">
-    <cfRule type="top10" dxfId="1" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA59">
-    <cfRule type="top10" dxfId="0" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4076,15 +5693,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:J16"/>
+  <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
@@ -4092,8 +5709,53 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>35</v>
       </c>
@@ -4109,55 +5771,2544 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>0.93253600000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.93428500000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.93449300000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.93472500000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.93527800000000005</v>
+      </c>
+      <c r="R9">
+        <v>0.85584800000000005</v>
+      </c>
+      <c r="S9">
+        <v>0.855989</v>
+      </c>
+      <c r="T9">
+        <v>0.85482800000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.85565800000000003</v>
+      </c>
+      <c r="V9">
+        <v>0.85590699999999997</v>
+      </c>
+      <c r="W9">
+        <v>0.84143000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.84124299999999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.84117900000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.84010200000000002</v>
+      </c>
+      <c r="AA9">
+        <v>0.84101800000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>0.66429499999999997</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.599024</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.58540499999999995</v>
+      </c>
+      <c r="M10">
+        <v>0.74258500000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.74347300000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.74483699999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.74288500000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.74480299999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.68477600000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.68410899999999997</v>
+      </c>
+      <c r="T10">
+        <v>0.68385600000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.68528599999999995</v>
+      </c>
+      <c r="V10">
+        <v>0.68365500000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.67482399999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.67468499999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.67439000000000004</v>
+      </c>
+      <c r="Z10">
+        <v>0.67378300000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.67370799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>0.66327800000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.59857800000000005</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.58464400000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.72877700000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.72919599999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.73065800000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.72809500000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.73021000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.67603599999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.67519399999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.67507099999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.67643500000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.67479299999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.66667600000000005</v>
+      </c>
+      <c r="X11">
+        <v>0.666412</v>
+      </c>
+      <c r="Y11">
+        <v>0.66620400000000002</v>
+      </c>
+      <c r="Z11">
+        <v>0.66562399999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.665516</v>
+      </c>
+    </row>
+    <row r="12" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>0.66464699999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.59834900000000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.58487699999999998</v>
+      </c>
+      <c r="M12">
+        <v>0.72401400000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.72417399999999998</v>
+      </c>
+      <c r="O12">
+        <v>0.72557199999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.72295900000000002</v>
+      </c>
+      <c r="Q12">
+        <v>0.72497500000000004</v>
+      </c>
+      <c r="R12">
+        <v>0.67230400000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.67142599999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.67137599999999997</v>
+      </c>
+      <c r="U12">
+        <v>0.67263499999999998</v>
+      </c>
+      <c r="V12">
+        <v>0.67110599999999998</v>
+      </c>
+      <c r="W12">
+        <v>0.66066800000000003</v>
+      </c>
+      <c r="X12">
+        <v>0.66037699999999999</v>
+      </c>
+      <c r="Y12">
+        <v>0.66024300000000002</v>
+      </c>
+      <c r="Z12">
+        <v>0.65975300000000003</v>
+      </c>
+      <c r="AA12">
+        <v>0.65966000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <v>0.66365300000000005</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.59922299999999995</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.58457099999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.72173500000000002</v>
+      </c>
+      <c r="N13">
+        <v>0.72166200000000003</v>
+      </c>
+      <c r="O13">
+        <v>0.72302299999999997</v>
+      </c>
+      <c r="P13">
+        <v>0.720526</v>
+      </c>
+      <c r="Q13">
+        <v>0.72237499999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.66682600000000003</v>
+      </c>
+      <c r="S13">
+        <v>0.66607000000000005</v>
+      </c>
+      <c r="T13">
+        <v>0.66603699999999999</v>
+      </c>
+      <c r="U13">
+        <v>0.66701999999999995</v>
+      </c>
+      <c r="V13">
+        <v>0.66575300000000004</v>
+      </c>
+      <c r="W13">
+        <v>0.64714300000000002</v>
+      </c>
+      <c r="X13">
+        <v>0.64672600000000002</v>
+      </c>
+      <c r="Y13">
+        <v>0.64675000000000005</v>
+      </c>
+      <c r="Z13">
+        <v>0.64630799999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.64611399999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>0.66359400000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.59899500000000006</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.58416699999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.72045000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.72020300000000004</v>
+      </c>
+      <c r="O14">
+        <v>0.72153400000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.719167</v>
+      </c>
+      <c r="Q14">
+        <v>0.72083799999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.65627800000000003</v>
+      </c>
+      <c r="S14">
+        <v>0.65559699999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.65565200000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.656447</v>
+      </c>
+      <c r="V14">
+        <v>0.65524499999999997</v>
+      </c>
+      <c r="W14">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="X14">
+        <v>0.63405800000000001</v>
+      </c>
+      <c r="Y14">
+        <v>0.63402800000000004</v>
+      </c>
+      <c r="Z14">
+        <v>0.63351900000000005</v>
+      </c>
+      <c r="AA14">
+        <v>0.63342799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3">
+        <f>AVERAGE(G10:G14)</f>
+        <v>0.66389340000000008</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:I15" si="0">AVERAGE(H10:H14)</f>
+        <v>0.59883379999999997</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58473280000000005</v>
+      </c>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>0.71958800000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.71921100000000004</v>
+      </c>
+      <c r="O15">
+        <v>0.72053199999999995</v>
+      </c>
+      <c r="P15">
+        <v>0.71826500000000004</v>
+      </c>
+      <c r="Q15">
+        <v>0.71979499999999996</v>
+      </c>
+      <c r="R15">
+        <v>0.64610199999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.64536300000000002</v>
+      </c>
+      <c r="T15">
+        <v>0.64554999999999996</v>
+      </c>
+      <c r="U15">
+        <v>0.64624499999999996</v>
+      </c>
+      <c r="V15">
+        <v>0.64514400000000005</v>
+      </c>
+      <c r="W15">
+        <v>0.62377400000000005</v>
+      </c>
+      <c r="X15">
+        <v>0.62313799999999997</v>
+      </c>
+      <c r="Y15">
+        <v>0.62312599999999996</v>
+      </c>
+      <c r="Z15">
+        <v>0.62256599999999995</v>
+      </c>
+      <c r="AA15">
+        <v>0.62263999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="3">
+        <f>STDEV(G10:G14)</f>
+        <v>5.6021094241363249E-4</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:I16" si="1">STDEV(H10:H14)</f>
+        <v>3.5850481168316713E-4</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5465393432806312E-4</v>
+      </c>
       <c r="J16" s="1"/>
+      <c r="M16">
+        <v>0.71884800000000004</v>
+      </c>
+      <c r="N16">
+        <v>0.71836500000000003</v>
+      </c>
+      <c r="O16">
+        <v>0.71968600000000005</v>
+      </c>
+      <c r="P16">
+        <v>0.71750800000000003</v>
+      </c>
+      <c r="Q16">
+        <v>0.71891400000000005</v>
+      </c>
+      <c r="R16">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="S16">
+        <v>0.635907</v>
+      </c>
+      <c r="T16">
+        <v>0.63602300000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.63665700000000003</v>
+      </c>
+      <c r="V16">
+        <v>0.63581399999999999</v>
+      </c>
+      <c r="W16">
+        <v>0.61441800000000002</v>
+      </c>
+      <c r="X16">
+        <v>0.61366299999999996</v>
+      </c>
+      <c r="Y16">
+        <v>0.613707</v>
+      </c>
+      <c r="Z16">
+        <v>0.61323700000000003</v>
+      </c>
+      <c r="AA16">
+        <v>0.61329699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="N17">
+        <v>0.71733800000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.71865199999999996</v>
+      </c>
+      <c r="P17">
+        <v>0.71655199999999997</v>
+      </c>
+      <c r="Q17">
+        <v>0.717862</v>
+      </c>
+      <c r="R17">
+        <v>0.62814400000000004</v>
+      </c>
+      <c r="S17">
+        <v>0.62752300000000005</v>
+      </c>
+      <c r="T17">
+        <v>0.62752799999999997</v>
+      </c>
+      <c r="U17">
+        <v>0.62821700000000003</v>
+      </c>
+      <c r="V17">
+        <v>0.62750899999999998</v>
+      </c>
+      <c r="W17">
+        <v>0.606514</v>
+      </c>
+      <c r="X17">
+        <v>0.60568699999999998</v>
+      </c>
+      <c r="Y17">
+        <v>0.60580199999999995</v>
+      </c>
+      <c r="Z17">
+        <v>0.60544500000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0.60538599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>0.71625399999999995</v>
+      </c>
+      <c r="N18">
+        <v>0.71564899999999998</v>
+      </c>
+      <c r="O18">
+        <v>0.71696000000000004</v>
+      </c>
+      <c r="P18">
+        <v>0.71490200000000004</v>
+      </c>
+      <c r="Q18">
+        <v>0.71614999999999995</v>
+      </c>
+      <c r="R18">
+        <v>0.62070599999999998</v>
+      </c>
+      <c r="S18">
+        <v>0.62009099999999995</v>
+      </c>
+      <c r="T18">
+        <v>0.62003799999999998</v>
+      </c>
+      <c r="U18">
+        <v>0.62079200000000001</v>
+      </c>
+      <c r="V18">
+        <v>0.62008700000000005</v>
+      </c>
+      <c r="W18">
+        <v>0.59994400000000003</v>
+      </c>
+      <c r="X18">
+        <v>0.59910600000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.59929299999999996</v>
+      </c>
+      <c r="Z18">
+        <v>0.59895399999999999</v>
+      </c>
+      <c r="AA18">
+        <v>0.59879899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>0.71330899999999997</v>
+      </c>
+      <c r="N19">
+        <v>0.712727</v>
+      </c>
+      <c r="O19">
+        <v>0.71400799999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.71195299999999995</v>
+      </c>
+      <c r="Q19">
+        <v>0.71316599999999997</v>
+      </c>
+      <c r="R19">
+        <v>0.61439500000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.61370199999999997</v>
+      </c>
+      <c r="U19">
+        <v>0.614506</v>
+      </c>
+      <c r="V19">
+        <v>0.61378900000000003</v>
+      </c>
+      <c r="W19">
+        <v>0.59461799999999998</v>
+      </c>
+      <c r="X19">
+        <v>0.593808</v>
+      </c>
+      <c r="Y19">
+        <v>0.59403499999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.59366200000000002</v>
+      </c>
+      <c r="AA19">
+        <v>0.59345499999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>0.70897900000000003</v>
+      </c>
+      <c r="N20">
+        <v>0.70843900000000004</v>
+      </c>
+      <c r="O20">
+        <v>0.70968799999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.70757899999999996</v>
+      </c>
+      <c r="Q20">
+        <v>0.70882500000000004</v>
+      </c>
+      <c r="R20">
+        <v>0.60919400000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.60861699999999996</v>
+      </c>
+      <c r="T20">
+        <v>0.60851999999999995</v>
+      </c>
+      <c r="U20">
+        <v>0.60933099999999996</v>
+      </c>
+      <c r="V20">
+        <v>0.60864600000000002</v>
+      </c>
+      <c r="W20">
+        <v>0.59055500000000005</v>
+      </c>
+      <c r="X20">
+        <v>0.58976700000000004</v>
+      </c>
+      <c r="Y20">
+        <v>0.59000399999999997</v>
+      </c>
+      <c r="Z20">
+        <v>0.58962000000000003</v>
+      </c>
+      <c r="AA20">
+        <v>0.589364</v>
+      </c>
+    </row>
+    <row r="21" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>0.70416199999999995</v>
+      </c>
+      <c r="N21">
+        <v>0.70358399999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.70485299999999995</v>
+      </c>
+      <c r="P21">
+        <v>0.70270100000000002</v>
+      </c>
+      <c r="Q21">
+        <v>0.70394000000000001</v>
+      </c>
+      <c r="R21">
+        <v>0.60510699999999995</v>
+      </c>
+      <c r="S21">
+        <v>0.60453299999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.60445000000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.60524500000000003</v>
+      </c>
+      <c r="V21">
+        <v>0.60463800000000001</v>
+      </c>
+      <c r="W21">
+        <v>0.58773299999999995</v>
+      </c>
+      <c r="X21">
+        <v>0.586955</v>
+      </c>
+      <c r="Y21">
+        <v>0.58719399999999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.58683099999999999</v>
+      </c>
+      <c r="AA21">
+        <v>0.58650899999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>0.69944899999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.69874899999999995</v>
+      </c>
+      <c r="O22">
+        <v>0.70012200000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.69792500000000002</v>
+      </c>
+      <c r="Q22">
+        <v>0.69916699999999998</v>
+      </c>
+      <c r="R22">
+        <v>0.60211499999999996</v>
+      </c>
+      <c r="S22">
+        <v>0.60155999999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.60145800000000005</v>
+      </c>
+      <c r="U22">
+        <v>0.60227799999999998</v>
+      </c>
+      <c r="V22">
+        <v>0.60175299999999998</v>
+      </c>
+      <c r="W22">
+        <v>0.58607799999999999</v>
+      </c>
+      <c r="X22">
+        <v>0.58530099999999996</v>
+      </c>
+      <c r="Y22">
+        <v>0.585538</v>
+      </c>
+      <c r="Z22">
+        <v>0.58520700000000003</v>
+      </c>
+      <c r="AA22">
+        <v>0.58483600000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>0.69491099999999995</v>
+      </c>
+      <c r="N23">
+        <v>0.69395300000000004</v>
+      </c>
+      <c r="O23">
+        <v>0.69551600000000002</v>
+      </c>
+      <c r="P23">
+        <v>0.69330199999999997</v>
+      </c>
+      <c r="Q23">
+        <v>0.69452700000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.60016800000000003</v>
+      </c>
+      <c r="S23">
+        <v>0.59964799999999996</v>
+      </c>
+      <c r="T23">
+        <v>0.59951900000000002</v>
+      </c>
+      <c r="U23">
+        <v>0.600352</v>
+      </c>
+      <c r="V23">
+        <v>0.59992699999999999</v>
+      </c>
+      <c r="W23">
+        <v>0.58540499999999995</v>
+      </c>
+      <c r="X23">
+        <v>0.58464400000000005</v>
+      </c>
+      <c r="Y23">
+        <v>0.58487699999999998</v>
+      </c>
+      <c r="Z23">
+        <v>0.58457099999999995</v>
+      </c>
+      <c r="AA23">
+        <v>0.58416699999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>0.69059199999999998</v>
+      </c>
+      <c r="N24">
+        <v>0.68930499999999995</v>
+      </c>
+      <c r="O24">
+        <v>0.69107499999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.68885600000000002</v>
+      </c>
+      <c r="Q24">
+        <v>0.69006299999999998</v>
+      </c>
+      <c r="R24">
+        <v>0.59918499999999997</v>
+      </c>
+      <c r="S24">
+        <v>0.59870599999999996</v>
+      </c>
+      <c r="T24">
+        <v>0.59852899999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.59938000000000002</v>
+      </c>
+      <c r="V24">
+        <v>0.59906300000000001</v>
+      </c>
+      <c r="W24">
+        <v>0.58546100000000001</v>
+      </c>
+      <c r="X24">
+        <v>0.58471600000000001</v>
+      </c>
+      <c r="Y24">
+        <v>0.58494699999999999</v>
+      </c>
+      <c r="Z24">
+        <v>0.58466200000000002</v>
+      </c>
+      <c r="AA24">
+        <v>0.58423599999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>0.68643100000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.68488599999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.68689</v>
+      </c>
+      <c r="P25">
+        <v>0.68462699999999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.68576599999999999</v>
+      </c>
+      <c r="R25">
+        <v>0.599024</v>
+      </c>
+      <c r="S25">
+        <v>0.59857800000000005</v>
+      </c>
+      <c r="T25">
+        <v>0.59834900000000002</v>
+      </c>
+      <c r="U25">
+        <v>0.59922299999999995</v>
+      </c>
+      <c r="V25">
+        <v>0.59899500000000006</v>
+      </c>
+      <c r="W25">
+        <v>0.58600099999999999</v>
+      </c>
+      <c r="X25">
+        <v>0.58526800000000001</v>
+      </c>
+      <c r="Y25">
+        <v>0.58548699999999998</v>
+      </c>
+      <c r="Z25">
+        <v>0.58522399999999997</v>
+      </c>
+      <c r="AA25">
+        <v>0.58477699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>0.68243299999999996</v>
+      </c>
+      <c r="N26">
+        <v>0.68074500000000004</v>
+      </c>
+      <c r="O26">
+        <v>0.68293800000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.68063899999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.68166400000000005</v>
+      </c>
+      <c r="R26">
+        <v>0.59950400000000004</v>
+      </c>
+      <c r="S26">
+        <v>0.59906999999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.59879800000000005</v>
+      </c>
+      <c r="U26">
+        <v>0.59968399999999999</v>
+      </c>
+      <c r="V26">
+        <v>0.59952099999999997</v>
+      </c>
+      <c r="W26">
+        <v>0.58681499999999998</v>
+      </c>
+      <c r="X26">
+        <v>0.58609599999999995</v>
+      </c>
+      <c r="Y26">
+        <v>0.58630400000000005</v>
+      </c>
+      <c r="Z26">
+        <v>0.58606100000000005</v>
+      </c>
+      <c r="AA26">
+        <v>0.58560599999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>0.678616</v>
+      </c>
+      <c r="N27">
+        <v>0.67691699999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.67916200000000004</v>
+      </c>
+      <c r="P27">
+        <v>0.67688700000000002</v>
+      </c>
+      <c r="Q27">
+        <v>0.67782100000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.60041800000000001</v>
+      </c>
+      <c r="S27">
+        <v>0.59999199999999997</v>
+      </c>
+      <c r="T27">
+        <v>0.59966600000000003</v>
+      </c>
+      <c r="U27">
+        <v>0.60058</v>
+      </c>
+      <c r="V27">
+        <v>0.60044900000000001</v>
+      </c>
+      <c r="W27">
+        <v>0.587781</v>
+      </c>
+      <c r="X27">
+        <v>0.58707399999999998</v>
+      </c>
+      <c r="Y27">
+        <v>0.58727700000000005</v>
+      </c>
+      <c r="Z27">
+        <v>0.58705099999999999</v>
+      </c>
+      <c r="AA27">
+        <v>0.58659799999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>0.67513199999999995</v>
+      </c>
+      <c r="N28">
+        <v>0.67342900000000006</v>
+      </c>
+      <c r="O28">
+        <v>0.67564900000000006</v>
+      </c>
+      <c r="P28">
+        <v>0.67349599999999998</v>
+      </c>
+      <c r="Q28">
+        <v>0.67431700000000006</v>
+      </c>
+      <c r="R28">
+        <v>0.60159899999999999</v>
+      </c>
+      <c r="S28">
+        <v>0.60116800000000004</v>
+      </c>
+      <c r="T28">
+        <v>0.60080100000000003</v>
+      </c>
+      <c r="U28">
+        <v>0.60175500000000004</v>
+      </c>
+      <c r="V28">
+        <v>0.601634</v>
+      </c>
+      <c r="W28">
+        <v>0.58883099999999999</v>
+      </c>
+      <c r="X28">
+        <v>0.58813199999999999</v>
+      </c>
+      <c r="Y28">
+        <v>0.58833199999999997</v>
+      </c>
+      <c r="Z28">
+        <v>0.58811400000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.58766799999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>0.67206500000000002</v>
+      </c>
+      <c r="N29">
+        <v>0.670377</v>
+      </c>
+      <c r="O29">
+        <v>0.67250799999999999</v>
+      </c>
+      <c r="P29">
+        <v>0.67054100000000005</v>
+      </c>
+      <c r="Q29">
+        <v>0.671261</v>
+      </c>
+      <c r="R29">
+        <v>0.60291499999999998</v>
+      </c>
+      <c r="S29">
+        <v>0.60247499999999998</v>
+      </c>
+      <c r="T29">
+        <v>0.60208600000000001</v>
+      </c>
+      <c r="U29">
+        <v>0.603074</v>
+      </c>
+      <c r="V29">
+        <v>0.60295900000000002</v>
+      </c>
+      <c r="W29">
+        <v>0.58992500000000003</v>
+      </c>
+      <c r="X29">
+        <v>0.58922799999999997</v>
+      </c>
+      <c r="Y29">
+        <v>0.58942600000000001</v>
+      </c>
+      <c r="Z29">
+        <v>0.58921000000000001</v>
+      </c>
+      <c r="AA29">
+        <v>0.58877699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>0.66949899999999996</v>
+      </c>
+      <c r="N30">
+        <v>0.66786800000000002</v>
+      </c>
+      <c r="O30">
+        <v>0.66983700000000002</v>
+      </c>
+      <c r="P30">
+        <v>0.66808100000000004</v>
+      </c>
+      <c r="Q30">
+        <v>0.66864599999999996</v>
+      </c>
+      <c r="R30">
+        <v>0.60429100000000002</v>
+      </c>
+      <c r="S30">
+        <v>0.60384400000000005</v>
+      </c>
+      <c r="T30">
+        <v>0.60343599999999997</v>
+      </c>
+      <c r="U30">
+        <v>0.60446699999999998</v>
+      </c>
+      <c r="V30">
+        <v>0.60434699999999997</v>
+      </c>
+      <c r="W30">
+        <v>0.59103600000000001</v>
+      </c>
+      <c r="X30">
+        <v>0.590337</v>
+      </c>
+      <c r="Y30">
+        <v>0.59053500000000003</v>
+      </c>
+      <c r="Z30">
+        <v>0.59032099999999998</v>
+      </c>
+      <c r="AA30">
+        <v>0.58990299999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>0.66742299999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.66590499999999997</v>
+      </c>
+      <c r="O31">
+        <v>0.66768000000000005</v>
+      </c>
+      <c r="P31">
+        <v>0.66615000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>0.66654500000000005</v>
+      </c>
+      <c r="R31">
+        <v>0.605688</v>
+      </c>
+      <c r="S31">
+        <v>0.60523400000000005</v>
+      </c>
+      <c r="T31">
+        <v>0.60480699999999998</v>
+      </c>
+      <c r="U31">
+        <v>0.605881</v>
+      </c>
+      <c r="V31">
+        <v>0.60575000000000001</v>
+      </c>
+      <c r="W31">
+        <v>0.59215300000000004</v>
+      </c>
+      <c r="X31">
+        <v>0.59144699999999994</v>
+      </c>
+      <c r="Y31">
+        <v>0.59164899999999998</v>
+      </c>
+      <c r="Z31">
+        <v>0.59143800000000002</v>
+      </c>
+      <c r="AA31">
+        <v>0.59103399999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>0.66586599999999996</v>
+      </c>
+      <c r="N32">
+        <v>0.66447100000000003</v>
+      </c>
+      <c r="O32">
+        <v>0.66609600000000002</v>
+      </c>
+      <c r="P32">
+        <v>0.66476400000000002</v>
+      </c>
+      <c r="Q32">
+        <v>0.66500499999999996</v>
+      </c>
+      <c r="R32">
+        <v>0.60708700000000004</v>
+      </c>
+      <c r="S32">
+        <v>0.60662300000000002</v>
+      </c>
+      <c r="T32">
+        <v>0.60617500000000002</v>
+      </c>
+      <c r="U32">
+        <v>0.60728899999999997</v>
+      </c>
+      <c r="V32">
+        <v>0.60714900000000005</v>
+      </c>
+      <c r="W32">
+        <v>0.59326500000000004</v>
+      </c>
+      <c r="X32">
+        <v>0.59255000000000002</v>
+      </c>
+      <c r="Y32">
+        <v>0.59275800000000001</v>
+      </c>
+      <c r="Z32">
+        <v>0.59254799999999996</v>
+      </c>
+      <c r="AA32">
+        <v>0.59215799999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>0.66482200000000002</v>
+      </c>
+      <c r="N33">
+        <v>0.66359100000000004</v>
+      </c>
+      <c r="O33">
+        <v>0.665072</v>
+      </c>
+      <c r="P33">
+        <v>0.66391999999999995</v>
+      </c>
+      <c r="Q33">
+        <v>0.66402899999999998</v>
+      </c>
+      <c r="R33">
+        <v>0.60847499999999999</v>
+      </c>
+      <c r="S33">
+        <v>0.60799199999999998</v>
+      </c>
+      <c r="T33">
+        <v>0.60752799999999996</v>
+      </c>
+      <c r="U33">
+        <v>0.60867599999999999</v>
+      </c>
+      <c r="V33">
+        <v>0.60853500000000005</v>
+      </c>
+      <c r="W33">
+        <v>0.59436299999999997</v>
+      </c>
+      <c r="X33">
+        <v>0.59364099999999997</v>
+      </c>
+      <c r="Y33">
+        <v>0.59385200000000005</v>
+      </c>
+      <c r="Z33">
+        <v>0.59364700000000004</v>
+      </c>
+      <c r="AA33">
+        <v>0.59326900000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>0.66429800000000006</v>
+      </c>
+      <c r="N34">
+        <v>0.66327800000000003</v>
+      </c>
+      <c r="O34">
+        <v>0.66464699999999999</v>
+      </c>
+      <c r="P34">
+        <v>0.66365300000000005</v>
+      </c>
+      <c r="Q34">
+        <v>0.66359400000000002</v>
+      </c>
+      <c r="R34">
+        <v>0.60983799999999999</v>
+      </c>
+      <c r="S34">
+        <v>0.60933300000000001</v>
+      </c>
+      <c r="T34">
+        <v>0.60886600000000002</v>
+      </c>
+      <c r="U34">
+        <v>0.61003700000000005</v>
+      </c>
+      <c r="V34">
+        <v>0.60989400000000005</v>
+      </c>
+      <c r="W34">
+        <v>0.59544399999999997</v>
+      </c>
+      <c r="X34">
+        <v>0.59471499999999999</v>
+      </c>
+      <c r="Y34">
+        <v>0.59493099999999999</v>
+      </c>
+      <c r="Z34">
+        <v>0.59472899999999995</v>
+      </c>
+      <c r="AA34">
+        <v>0.59435899999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>0.66429499999999997</v>
+      </c>
+      <c r="N35">
+        <v>0.66350699999999996</v>
+      </c>
+      <c r="O35">
+        <v>0.66481900000000005</v>
+      </c>
+      <c r="P35">
+        <v>0.66390199999999999</v>
+      </c>
+      <c r="Q35">
+        <v>0.66370300000000004</v>
+      </c>
+      <c r="R35">
+        <v>0.61117600000000005</v>
+      </c>
+      <c r="S35">
+        <v>0.61064399999999996</v>
+      </c>
+      <c r="T35">
+        <v>0.610178</v>
+      </c>
+      <c r="U35">
+        <v>0.61136800000000002</v>
+      </c>
+      <c r="V35">
+        <v>0.61122100000000001</v>
+      </c>
+      <c r="W35">
+        <v>0.59650499999999995</v>
+      </c>
+      <c r="X35">
+        <v>0.59576700000000005</v>
+      </c>
+      <c r="Y35">
+        <v>0.59599199999999997</v>
+      </c>
+      <c r="Z35">
+        <v>0.59579199999999999</v>
+      </c>
+      <c r="AA35">
+        <v>0.59542799999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>0.66479699999999997</v>
+      </c>
+      <c r="N36">
+        <v>0.66425100000000004</v>
+      </c>
+      <c r="O36">
+        <v>0.66549400000000003</v>
+      </c>
+      <c r="P36">
+        <v>0.66463899999999998</v>
+      </c>
+      <c r="Q36">
+        <v>0.66431899999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.61248199999999997</v>
+      </c>
+      <c r="S36">
+        <v>0.61192299999999999</v>
+      </c>
+      <c r="T36">
+        <v>0.61146199999999995</v>
+      </c>
+      <c r="U36">
+        <v>0.61266699999999996</v>
+      </c>
+      <c r="V36">
+        <v>0.61251900000000004</v>
+      </c>
+      <c r="W36">
+        <v>0.59754099999999999</v>
+      </c>
+      <c r="X36">
+        <v>0.59679400000000005</v>
+      </c>
+      <c r="Y36">
+        <v>0.597028</v>
+      </c>
+      <c r="Z36">
+        <v>0.59683299999999995</v>
+      </c>
+      <c r="AA36">
+        <v>0.59647399999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>0.66573099999999996</v>
+      </c>
+      <c r="N37">
+        <v>0.66547900000000004</v>
+      </c>
+      <c r="O37">
+        <v>0.66662299999999997</v>
+      </c>
+      <c r="P37">
+        <v>0.66583000000000003</v>
+      </c>
+      <c r="Q37">
+        <v>0.66537800000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.61375800000000003</v>
+      </c>
+      <c r="S37">
+        <v>0.61317200000000005</v>
+      </c>
+      <c r="T37">
+        <v>0.61271600000000004</v>
+      </c>
+      <c r="U37">
+        <v>0.613931</v>
+      </c>
+      <c r="V37">
+        <v>0.61378699999999997</v>
+      </c>
+      <c r="W37">
+        <v>0.598553</v>
+      </c>
+      <c r="X37">
+        <v>0.59779599999999999</v>
+      </c>
+      <c r="Y37">
+        <v>0.59804199999999996</v>
+      </c>
+      <c r="Z37">
+        <v>0.59785100000000002</v>
+      </c>
+      <c r="AA37">
+        <v>0.59749699999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>0.66704200000000002</v>
+      </c>
+      <c r="N38">
+        <v>0.66713800000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.66813900000000004</v>
+      </c>
+      <c r="P38">
+        <v>0.66738500000000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.66684900000000003</v>
+      </c>
+      <c r="R38">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="S38">
+        <v>0.61439200000000005</v>
+      </c>
+      <c r="T38">
+        <v>0.61393699999999995</v>
+      </c>
+      <c r="U38">
+        <v>0.61515900000000001</v>
+      </c>
+      <c r="V38">
+        <v>0.61502299999999999</v>
+      </c>
+      <c r="W38">
+        <v>0.59954399999999997</v>
+      </c>
+      <c r="X38">
+        <v>0.59877400000000003</v>
+      </c>
+      <c r="Y38">
+        <v>0.59903099999999998</v>
+      </c>
+      <c r="Z38">
+        <v>0.59884599999999999</v>
+      </c>
+      <c r="AA38">
+        <v>0.59849600000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>0.66868099999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.669099</v>
+      </c>
+      <c r="O39">
+        <v>0.669956</v>
+      </c>
+      <c r="P39">
+        <v>0.66923900000000003</v>
+      </c>
+      <c r="Q39">
+        <v>0.66866899999999996</v>
+      </c>
+      <c r="R39">
+        <v>0.61621300000000001</v>
+      </c>
+      <c r="S39">
+        <v>0.61558100000000004</v>
+      </c>
+      <c r="T39">
+        <v>0.61512699999999998</v>
+      </c>
+      <c r="U39">
+        <v>0.61635200000000001</v>
+      </c>
+      <c r="V39">
+        <v>0.61622699999999997</v>
+      </c>
+      <c r="W39">
+        <v>0.60051100000000002</v>
+      </c>
+      <c r="X39">
+        <v>0.59972899999999996</v>
+      </c>
+      <c r="Y39">
+        <v>0.59999599999999997</v>
+      </c>
+      <c r="Z39">
+        <v>0.59981600000000002</v>
+      </c>
+      <c r="AA39">
+        <v>0.59946999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>0.67058899999999999</v>
+      </c>
+      <c r="N40">
+        <v>0.671269</v>
+      </c>
+      <c r="O40">
+        <v>0.67202099999999998</v>
+      </c>
+      <c r="P40">
+        <v>0.67133699999999996</v>
+      </c>
+      <c r="Q40">
+        <v>0.67074</v>
+      </c>
+      <c r="R40">
+        <v>0.617394</v>
+      </c>
+      <c r="S40">
+        <v>0.61673900000000004</v>
+      </c>
+      <c r="T40">
+        <v>0.61628700000000003</v>
+      </c>
+      <c r="U40">
+        <v>0.61751199999999995</v>
+      </c>
+      <c r="V40">
+        <v>0.61739900000000003</v>
+      </c>
+      <c r="W40">
+        <v>0.60145599999999999</v>
+      </c>
+      <c r="X40">
+        <v>0.60066299999999995</v>
+      </c>
+      <c r="Y40">
+        <v>0.600935</v>
+      </c>
+      <c r="Z40">
+        <v>0.60076099999999999</v>
+      </c>
+      <c r="AA40">
+        <v>0.60042099999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>0.67272699999999996</v>
+      </c>
+      <c r="N41">
+        <v>0.67361300000000002</v>
+      </c>
+      <c r="O41">
+        <v>0.67427300000000001</v>
+      </c>
+      <c r="P41">
+        <v>0.67359100000000005</v>
+      </c>
+      <c r="Q41">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="R41">
+        <v>0.61854299999999995</v>
+      </c>
+      <c r="S41">
+        <v>0.61786600000000003</v>
+      </c>
+      <c r="T41">
+        <v>0.61741500000000005</v>
+      </c>
+      <c r="U41">
+        <v>0.61864200000000003</v>
+      </c>
+      <c r="V41">
+        <v>0.61854200000000004</v>
+      </c>
+      <c r="W41">
+        <v>0.60237799999999997</v>
+      </c>
+      <c r="X41">
+        <v>0.60157300000000002</v>
+      </c>
+      <c r="Y41">
+        <v>0.60185100000000002</v>
+      </c>
+      <c r="Z41">
+        <v>0.60168200000000005</v>
+      </c>
+      <c r="AA41">
+        <v>0.60134799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>0.67502300000000004</v>
+      </c>
+      <c r="N42">
+        <v>0.67603899999999995</v>
+      </c>
+      <c r="O42">
+        <v>0.67666000000000004</v>
+      </c>
+      <c r="P42">
+        <v>0.67596699999999998</v>
+      </c>
+      <c r="Q42">
+        <v>0.67537499999999995</v>
+      </c>
+      <c r="R42">
+        <v>0.61965700000000001</v>
+      </c>
+      <c r="S42">
+        <v>0.61896300000000004</v>
+      </c>
+      <c r="T42">
+        <v>0.61851500000000004</v>
+      </c>
+      <c r="U42">
+        <v>0.61974200000000002</v>
+      </c>
+      <c r="V42">
+        <v>0.61965700000000001</v>
+      </c>
+      <c r="W42">
+        <v>0.60327600000000003</v>
+      </c>
+      <c r="X42">
+        <v>0.60245899999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0.60274399999999995</v>
+      </c>
+      <c r="Z42">
+        <v>0.60257700000000003</v>
+      </c>
+      <c r="AA42">
+        <v>0.60225200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>0.67742800000000003</v>
+      </c>
+      <c r="N43">
+        <v>0.67853200000000002</v>
+      </c>
+      <c r="O43">
+        <v>0.67914600000000003</v>
+      </c>
+      <c r="P43">
+        <v>0.67840599999999995</v>
+      </c>
+      <c r="Q43">
+        <v>0.67782399999999998</v>
+      </c>
+      <c r="R43">
+        <v>0.62074300000000004</v>
+      </c>
+      <c r="S43">
+        <v>0.620031</v>
+      </c>
+      <c r="T43">
+        <v>0.61958800000000003</v>
+      </c>
+      <c r="U43">
+        <v>0.62081200000000003</v>
+      </c>
+      <c r="V43">
+        <v>0.62074200000000002</v>
+      </c>
+      <c r="W43">
+        <v>0.60414999999999996</v>
+      </c>
+      <c r="X43">
+        <v>0.603321</v>
+      </c>
+      <c r="Y43">
+        <v>0.60361399999999998</v>
+      </c>
+      <c r="Z43">
+        <v>0.60345000000000004</v>
+      </c>
+      <c r="AA43">
+        <v>0.603132</v>
+      </c>
+    </row>
+    <row r="44" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>0.67991299999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.68104200000000004</v>
+      </c>
+      <c r="O44">
+        <v>0.68170500000000001</v>
+      </c>
+      <c r="P44">
+        <v>0.680871</v>
+      </c>
+      <c r="Q44">
+        <v>0.680315</v>
+      </c>
+      <c r="R44">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="S44">
+        <v>0.62107299999999999</v>
+      </c>
+      <c r="T44">
+        <v>0.62063299999999999</v>
+      </c>
+      <c r="U44">
+        <v>0.62185299999999999</v>
+      </c>
+      <c r="V44">
+        <v>0.62179799999999996</v>
+      </c>
+      <c r="W44">
+        <v>0.60500200000000004</v>
+      </c>
+      <c r="X44">
+        <v>0.60416099999999995</v>
+      </c>
+      <c r="Y44">
+        <v>0.60446200000000005</v>
+      </c>
+      <c r="Z44">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="AA44">
+        <v>0.603989</v>
+      </c>
+    </row>
+    <row r="45" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>0.682419</v>
+      </c>
+      <c r="N45">
+        <v>0.68354599999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.68428699999999998</v>
+      </c>
+      <c r="P45">
+        <v>0.683334</v>
+      </c>
+      <c r="Q45">
+        <v>0.68281099999999995</v>
+      </c>
+      <c r="R45">
+        <v>0.62282999999999999</v>
+      </c>
+      <c r="S45">
+        <v>0.62208699999999995</v>
+      </c>
+      <c r="T45">
+        <v>0.62165400000000004</v>
+      </c>
+      <c r="U45">
+        <v>0.62286399999999997</v>
+      </c>
+      <c r="V45">
+        <v>0.62282700000000002</v>
+      </c>
+      <c r="W45">
+        <v>0.60583299999999995</v>
+      </c>
+      <c r="X45">
+        <v>0.60497999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0.60528800000000005</v>
+      </c>
+      <c r="Z45">
+        <v>0.60512699999999997</v>
+      </c>
+      <c r="AA45">
+        <v>0.604823</v>
+      </c>
+    </row>
+    <row r="46" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>0.68490700000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.68601400000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.68685300000000005</v>
+      </c>
+      <c r="P46">
+        <v>0.68577100000000002</v>
+      </c>
+      <c r="Q46">
+        <v>0.68530199999999997</v>
+      </c>
+      <c r="R46">
+        <v>0.623834</v>
+      </c>
+      <c r="S46">
+        <v>0.62307400000000002</v>
+      </c>
+      <c r="T46">
+        <v>0.62264799999999998</v>
+      </c>
+      <c r="U46">
+        <v>0.62384600000000001</v>
+      </c>
+      <c r="V46">
+        <v>0.62383</v>
+      </c>
+      <c r="W46">
+        <v>0.60664099999999999</v>
+      </c>
+      <c r="X46">
+        <v>0.60577700000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0.60609199999999996</v>
+      </c>
+      <c r="Z46">
+        <v>0.60593200000000003</v>
+      </c>
+      <c r="AA46">
+        <v>0.60563500000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>0.68736200000000003</v>
+      </c>
+      <c r="N47">
+        <v>0.68844700000000003</v>
+      </c>
+      <c r="O47">
+        <v>0.689384</v>
+      </c>
+      <c r="P47">
+        <v>0.68818599999999996</v>
+      </c>
+      <c r="Q47">
+        <v>0.687774</v>
+      </c>
+      <c r="R47">
+        <v>0.62481200000000003</v>
+      </c>
+      <c r="S47">
+        <v>0.62403600000000004</v>
+      </c>
+      <c r="T47">
+        <v>0.62361599999999995</v>
+      </c>
+      <c r="U47">
+        <v>0.62480199999999997</v>
+      </c>
+      <c r="V47">
+        <v>0.62480500000000005</v>
+      </c>
+      <c r="W47">
+        <v>0.607429</v>
+      </c>
+      <c r="X47">
+        <v>0.60655400000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0.60687500000000005</v>
+      </c>
+      <c r="Z47">
+        <v>0.60671699999999995</v>
+      </c>
+      <c r="AA47">
+        <v>0.60642600000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>0.68977699999999997</v>
+      </c>
+      <c r="N48">
+        <v>0.69082900000000003</v>
+      </c>
+      <c r="O48">
+        <v>0.69186400000000003</v>
+      </c>
+      <c r="P48">
+        <v>0.69055999999999995</v>
+      </c>
+      <c r="Q48">
+        <v>0.69022499999999998</v>
+      </c>
+      <c r="R48">
+        <v>0.62576600000000004</v>
+      </c>
+      <c r="S48">
+        <v>0.62497199999999997</v>
+      </c>
+      <c r="T48">
+        <v>0.62456</v>
+      </c>
+      <c r="U48">
+        <v>0.62573299999999998</v>
+      </c>
+      <c r="V48">
+        <v>0.62575499999999995</v>
+      </c>
+      <c r="W48">
+        <v>0.60819699999999999</v>
+      </c>
+      <c r="X48">
+        <v>0.60731199999999996</v>
+      </c>
+      <c r="Y48">
+        <v>0.60763699999999998</v>
+      </c>
+      <c r="Z48">
+        <v>0.60748199999999997</v>
+      </c>
+      <c r="AA48">
+        <v>0.60719699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>0.69215000000000004</v>
+      </c>
+      <c r="N49">
+        <v>0.69314200000000004</v>
+      </c>
+      <c r="O49">
+        <v>0.69427700000000003</v>
+      </c>
+      <c r="P49">
+        <v>0.69288099999999997</v>
+      </c>
+      <c r="Q49">
+        <v>0.692635</v>
+      </c>
+      <c r="R49">
+        <v>0.62669399999999997</v>
+      </c>
+      <c r="S49">
+        <v>0.62588299999999997</v>
+      </c>
+      <c r="T49">
+        <v>0.62547900000000001</v>
+      </c>
+      <c r="U49">
+        <v>0.62663899999999995</v>
+      </c>
+      <c r="V49">
+        <v>0.62668000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0.60894700000000002</v>
+      </c>
+      <c r="X49">
+        <v>0.60805100000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0.60838000000000003</v>
+      </c>
+      <c r="Z49">
+        <v>0.60822600000000004</v>
+      </c>
+      <c r="AA49">
+        <v>0.60794700000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>0.694469</v>
+      </c>
+      <c r="N50">
+        <v>0.69540400000000002</v>
+      </c>
+      <c r="O50">
+        <v>0.69661499999999998</v>
+      </c>
+      <c r="P50">
+        <v>0.69514299999999996</v>
+      </c>
+      <c r="Q50">
+        <v>0.69498599999999999</v>
+      </c>
+      <c r="R50">
+        <v>0.62759900000000002</v>
+      </c>
+      <c r="S50">
+        <v>0.62677000000000005</v>
+      </c>
+      <c r="T50">
+        <v>0.62637399999999999</v>
+      </c>
+      <c r="U50">
+        <v>0.62752300000000005</v>
+      </c>
+      <c r="V50">
+        <v>0.62758100000000006</v>
+      </c>
+      <c r="W50">
+        <v>0.60967700000000002</v>
+      </c>
+      <c r="X50">
+        <v>0.60877099999999995</v>
+      </c>
+      <c r="Y50">
+        <v>0.60910399999999998</v>
+      </c>
+      <c r="Z50">
+        <v>0.60894999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>0.60867899999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>0.69672599999999996</v>
+      </c>
+      <c r="N51">
+        <v>0.69761799999999996</v>
+      </c>
+      <c r="O51">
+        <v>0.69888899999999998</v>
+      </c>
+      <c r="P51">
+        <v>0.697357</v>
+      </c>
+      <c r="Q51">
+        <v>0.69728000000000001</v>
+      </c>
+      <c r="R51">
+        <v>0.62847900000000001</v>
+      </c>
+      <c r="S51">
+        <v>0.62763400000000003</v>
+      </c>
+      <c r="T51">
+        <v>0.627247</v>
+      </c>
+      <c r="U51">
+        <v>0.62838700000000003</v>
+      </c>
+      <c r="V51">
+        <v>0.62845799999999996</v>
+      </c>
+      <c r="W51">
+        <v>0.61038999999999999</v>
+      </c>
+      <c r="X51">
+        <v>0.60947200000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0.60980999999999996</v>
+      </c>
+      <c r="Z51">
+        <v>0.609657</v>
+      </c>
+      <c r="AA51">
+        <v>0.60939100000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>0.69891700000000001</v>
+      </c>
+      <c r="N52">
+        <v>0.69976899999999997</v>
+      </c>
+      <c r="O52">
+        <v>0.701102</v>
+      </c>
+      <c r="P52">
+        <v>0.69952099999999995</v>
+      </c>
+      <c r="Q52">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="R52">
+        <v>0.62933600000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.62847500000000001</v>
+      </c>
+      <c r="T52">
+        <v>0.62809899999999996</v>
+      </c>
+      <c r="U52">
+        <v>0.62922800000000001</v>
+      </c>
+      <c r="V52">
+        <v>0.62931199999999998</v>
+      </c>
+      <c r="W52">
+        <v>0.61108499999999999</v>
+      </c>
+      <c r="X52">
+        <v>0.610155</v>
+      </c>
+      <c r="Y52">
+        <v>0.61049799999999999</v>
+      </c>
+      <c r="Z52">
+        <v>0.61034699999999997</v>
+      </c>
+      <c r="AA52">
+        <v>0.61008499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>0.70105300000000004</v>
+      </c>
+      <c r="N53">
+        <v>0.70185299999999995</v>
+      </c>
+      <c r="O53">
+        <v>0.70325199999999999</v>
+      </c>
+      <c r="P53">
+        <v>0.70161499999999999</v>
+      </c>
+      <c r="Q53">
+        <v>0.70165100000000002</v>
+      </c>
+      <c r="R53">
+        <v>0.63017100000000004</v>
+      </c>
+      <c r="S53">
+        <v>0.62929400000000002</v>
+      </c>
+      <c r="T53">
+        <v>0.62892800000000004</v>
+      </c>
+      <c r="U53">
+        <v>0.63004700000000002</v>
+      </c>
+      <c r="V53">
+        <v>0.63014400000000004</v>
+      </c>
+      <c r="W53">
+        <v>0.611765</v>
+      </c>
+      <c r="X53">
+        <v>0.61082199999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0.61116999999999999</v>
+      </c>
+      <c r="Z53">
+        <v>0.61102000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>0.61076200000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>0.70313999999999999</v>
+      </c>
+      <c r="N54">
+        <v>0.70387299999999997</v>
+      </c>
+      <c r="O54">
+        <v>0.70534600000000003</v>
+      </c>
+      <c r="P54">
+        <v>0.70364499999999996</v>
+      </c>
+      <c r="Q54">
+        <v>0.70374099999999995</v>
+      </c>
+      <c r="R54">
+        <v>0.63098299999999996</v>
+      </c>
+      <c r="S54">
+        <v>0.63009199999999999</v>
+      </c>
+      <c r="T54">
+        <v>0.62973599999999996</v>
+      </c>
+      <c r="U54">
+        <v>0.63084499999999999</v>
+      </c>
+      <c r="V54">
+        <v>0.63095400000000001</v>
+      </c>
+      <c r="W54">
+        <v>0.61242799999999997</v>
+      </c>
+      <c r="X54">
+        <v>0.61147200000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0.61182400000000003</v>
+      </c>
+      <c r="Z54">
+        <v>0.61167800000000006</v>
+      </c>
+      <c r="AA54">
+        <v>0.61142200000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>0.70516699999999999</v>
+      </c>
+      <c r="N55">
+        <v>0.70582699999999998</v>
+      </c>
+      <c r="O55">
+        <v>0.70738299999999998</v>
+      </c>
+      <c r="P55">
+        <v>0.70560299999999998</v>
+      </c>
+      <c r="Q55">
+        <v>0.70576300000000003</v>
+      </c>
+      <c r="R55">
+        <v>0.63177399999999995</v>
+      </c>
+      <c r="S55">
+        <v>0.63087099999999996</v>
+      </c>
+      <c r="T55">
+        <v>0.63052299999999994</v>
+      </c>
+      <c r="U55">
+        <v>0.63162399999999996</v>
+      </c>
+      <c r="V55">
+        <v>0.63174200000000003</v>
+      </c>
+      <c r="W55">
+        <v>0.61307500000000004</v>
+      </c>
+      <c r="X55">
+        <v>0.61210699999999996</v>
+      </c>
+      <c r="Y55">
+        <v>0.61246299999999998</v>
+      </c>
+      <c r="Z55">
+        <v>0.61231999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>0.61206700000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>0.70713899999999996</v>
+      </c>
+      <c r="N56">
+        <v>0.70772699999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.70937099999999997</v>
+      </c>
+      <c r="P56">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="Q56">
+        <v>0.70772299999999999</v>
+      </c>
+      <c r="R56">
+        <v>0.63254699999999997</v>
+      </c>
+      <c r="S56">
+        <v>0.63163000000000002</v>
+      </c>
+      <c r="T56">
+        <v>0.63129199999999996</v>
+      </c>
+      <c r="U56">
+        <v>0.63238399999999995</v>
+      </c>
+      <c r="V56">
+        <v>0.63251000000000002</v>
+      </c>
+      <c r="W56">
+        <v>0.613707</v>
+      </c>
+      <c r="X56">
+        <v>0.61272800000000005</v>
+      </c>
+      <c r="Y56">
+        <v>0.61308700000000005</v>
+      </c>
+      <c r="Z56">
+        <v>0.61294700000000002</v>
+      </c>
+      <c r="AA56">
+        <v>0.61269600000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>0.70906100000000005</v>
+      </c>
+      <c r="N57">
+        <v>0.70957000000000003</v>
+      </c>
+      <c r="O57">
+        <v>0.71129699999999996</v>
+      </c>
+      <c r="P57">
+        <v>0.70935099999999995</v>
+      </c>
+      <c r="Q57">
+        <v>0.70962800000000004</v>
+      </c>
+      <c r="R57">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="S57">
+        <v>0.63237200000000005</v>
+      </c>
+      <c r="T57">
+        <v>0.63204199999999999</v>
+      </c>
+      <c r="U57">
+        <v>0.63312500000000005</v>
+      </c>
+      <c r="V57">
+        <v>0.63325900000000002</v>
+      </c>
+      <c r="W57">
+        <v>0.61432399999999998</v>
+      </c>
+      <c r="X57">
+        <v>0.61333499999999996</v>
+      </c>
+      <c r="Y57">
+        <v>0.61369499999999999</v>
+      </c>
+      <c r="Z57">
+        <v>0.61355800000000005</v>
+      </c>
+      <c r="AA57">
+        <v>0.61331000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>0.71092699999999998</v>
+      </c>
+      <c r="N58">
+        <v>0.71136500000000003</v>
+      </c>
+      <c r="O58">
+        <v>0.71316299999999999</v>
+      </c>
+      <c r="P58">
+        <v>0.71114999999999995</v>
+      </c>
+      <c r="Q58">
+        <v>0.71149499999999999</v>
+      </c>
+      <c r="R58">
+        <v>0.63403399999999999</v>
+      </c>
+      <c r="S58">
+        <v>0.63309599999999999</v>
+      </c>
+      <c r="T58">
+        <v>0.63277399999999995</v>
+      </c>
+      <c r="U58">
+        <v>0.633849</v>
+      </c>
+      <c r="V58">
+        <v>0.633988</v>
+      </c>
+      <c r="W58">
+        <v>0.61492599999999997</v>
+      </c>
+      <c r="X58">
+        <v>0.61392800000000003</v>
+      </c>
+      <c r="Y58">
+        <v>0.61429</v>
+      </c>
+      <c r="Z58">
+        <v>0.61415500000000001</v>
+      </c>
+      <c r="AA58">
+        <v>0.61390999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>0.71274000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.71311199999999997</v>
+      </c>
+      <c r="O59">
+        <v>0.71497500000000003</v>
+      </c>
+      <c r="P59">
+        <v>0.712893</v>
+      </c>
+      <c r="Q59">
+        <v>0.71331500000000003</v>
+      </c>
+      <c r="R59">
+        <v>0.63475000000000004</v>
+      </c>
+      <c r="S59">
+        <v>0.63380300000000001</v>
+      </c>
+      <c r="T59">
+        <v>0.63348899999999997</v>
+      </c>
+      <c r="U59">
+        <v>0.63455600000000001</v>
+      </c>
+      <c r="V59">
+        <v>0.63469900000000001</v>
+      </c>
+      <c r="W59">
+        <v>0.61551500000000003</v>
+      </c>
+      <c r="X59">
+        <v>0.61450700000000003</v>
+      </c>
+      <c r="Y59">
+        <v>0.61487000000000003</v>
+      </c>
+      <c r="Z59">
+        <v>0.61473900000000004</v>
+      </c>
+      <c r="AA59">
+        <v>0.61449600000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M9:M59">
+    <cfRule type="top10" dxfId="43" priority="30" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N59">
+    <cfRule type="top10" dxfId="42" priority="29" percent="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:O59">
+    <cfRule type="top10" dxfId="41" priority="28" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P59">
+    <cfRule type="top10" dxfId="40" priority="27" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q59">
+    <cfRule type="top10" dxfId="39" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R59">
+    <cfRule type="top10" dxfId="38" priority="25" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S59">
+    <cfRule type="top10" dxfId="37" priority="24" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:T59">
+    <cfRule type="top10" dxfId="36" priority="23" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U59">
+    <cfRule type="top10" dxfId="35" priority="22" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:V59">
+    <cfRule type="top10" dxfId="34" priority="21" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9:W59">
+    <cfRule type="top10" dxfId="33" priority="20" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X59">
+    <cfRule type="top10" dxfId="32" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9:Y59">
+    <cfRule type="top10" dxfId="31" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:Z59">
+    <cfRule type="top10" dxfId="30" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA59">
+    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment/baseline.xlsx
+++ b/experiment/baseline.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziaoang/Documents/git/cikm16/experiment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27500" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -155,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
@@ -219,1207 +227,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1998,11 +806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
@@ -2139,7 +947,9 @@
       <c r="W10" s="2">
         <v>0.795686</v>
       </c>
-      <c r="X10" s="2"/>
+      <c r="X10" s="2">
+        <v>0.84780299999999997</v>
+      </c>
       <c r="AA10">
         <v>1</v>
       </c>
@@ -2152,7 +962,9 @@
       <c r="AD10" s="2">
         <v>0.77964599999999995</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="2">
+        <v>0.83581000000000005</v>
+      </c>
     </row>
     <row r="11" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F11">
@@ -2197,7 +1009,9 @@
       <c r="W11" s="2">
         <v>0.79227099999999995</v>
       </c>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>0.84659499999999999</v>
+      </c>
       <c r="AA11">
         <v>2</v>
       </c>
@@ -2210,7 +1024,9 @@
       <c r="AD11" s="2">
         <v>0.77844599999999997</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="2">
+        <v>0.83561099999999999</v>
+      </c>
     </row>
     <row r="12" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F12">
@@ -2255,7 +1071,9 @@
       <c r="W12" s="2">
         <v>0.79381199999999996</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2">
+        <v>0.850325</v>
+      </c>
       <c r="AA12">
         <v>3</v>
       </c>
@@ -2268,7 +1086,9 @@
       <c r="AD12" s="2">
         <v>0.77855300000000005</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>0.83538299999999999</v>
+      </c>
     </row>
     <row r="13" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F13">
@@ -2313,7 +1133,9 @@
       <c r="W13" s="2">
         <v>0.792879</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <v>0.84899199999999997</v>
+      </c>
       <c r="AA13">
         <v>4</v>
       </c>
@@ -2326,7 +1148,9 @@
       <c r="AD13" s="2">
         <v>0.77853499999999998</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="2">
+        <v>0.83605200000000002</v>
+      </c>
     </row>
     <row r="14" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F14">
@@ -2371,7 +1195,9 @@
       <c r="W14" s="2">
         <v>0.79783700000000002</v>
       </c>
-      <c r="X14" s="2"/>
+      <c r="X14" s="2">
+        <v>0.84870999999999996</v>
+      </c>
       <c r="AA14">
         <v>5</v>
       </c>
@@ -2384,7 +1210,9 @@
       <c r="AD14" s="2">
         <v>0.77828699999999995</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="2">
+        <v>0.83556699999999995</v>
+      </c>
     </row>
     <row r="15" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
@@ -2433,14 +1261,17 @@
         <v>0.86414579999999996</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" ref="V15:W15" si="1">AVERAGE(V10:V14)</f>
+        <f t="shared" ref="V15:X15" si="1">AVERAGE(V10:V14)</f>
         <v>0.80217159999999998</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" si="1"/>
         <v>0.79449700000000001</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84848499999999993</v>
+      </c>
       <c r="AA15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2449,14 +1280,17 @@
         <v>0.8460392000000001</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" ref="AC15:AD15" si="2">AVERAGE(AC10:AC14)</f>
+        <f t="shared" ref="AC15:AE15" si="2">AVERAGE(AC10:AC14)</f>
         <v>0.78660619999999992</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" si="2"/>
         <v>0.77869339999999987</v>
       </c>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83568459999999989</v>
+      </c>
     </row>
     <row r="16" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
@@ -2505,14 +1339,17 @@
         <v>1.4565694971404759E-3</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16:W16" si="5">STDEV(V10:V14)</f>
+        <f t="shared" ref="V16:X16" si="5">STDEV(V10:V14)</f>
         <v>1.2606194112419558E-3</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="5"/>
         <v>2.2699970264297934E-3</v>
       </c>
-      <c r="X16" s="3"/>
+      <c r="X16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3901886562621665E-3</v>
+      </c>
       <c r="AA16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2521,14 +1358,17 @@
         <v>1.1198485165414102E-3</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AD16" si="6">STDEV(AC10:AC14)</f>
+        <f t="shared" ref="AC16:AE16" si="6">STDEV(AC10:AC14)</f>
         <v>3.8544675378061053E-4</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="6"/>
         <v>5.4282068862561601E-4</v>
       </c>
-      <c r="AE16" s="3"/>
+      <c r="AE16" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5540027407975073E-4</v>
+      </c>
     </row>
     <row r="20" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -2665,7 +1505,9 @@
       <c r="W22" s="2">
         <v>0.60751900000000003</v>
       </c>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>0.64912499999999995</v>
+      </c>
       <c r="AA22">
         <v>1</v>
       </c>
@@ -2677,6 +1519,9 @@
       </c>
       <c r="AD22" s="2">
         <v>0.59483699999999995</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0.64861100000000005</v>
       </c>
     </row>
     <row r="23" spans="6:31" x14ac:dyDescent="0.2">
@@ -2722,7 +1567,9 @@
       <c r="W23" s="2">
         <v>0.59946500000000003</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <v>0.65202199999999999</v>
+      </c>
       <c r="AA23">
         <v>2</v>
       </c>
@@ -2734,6 +1581,9 @@
       </c>
       <c r="AD23" s="2">
         <v>0.59386399999999995</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0.64856400000000003</v>
       </c>
     </row>
     <row r="24" spans="6:31" x14ac:dyDescent="0.2">
@@ -2779,7 +1629,9 @@
       <c r="W24" s="2">
         <v>0.59887299999999999</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>0.65948200000000001</v>
+      </c>
       <c r="AA24">
         <v>3</v>
       </c>
@@ -2791,6 +1643,9 @@
       </c>
       <c r="AD24" s="2">
         <v>0.59409999999999996</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0.64830100000000002</v>
       </c>
     </row>
     <row r="25" spans="6:31" x14ac:dyDescent="0.2">
@@ -2836,7 +1691,9 @@
       <c r="W25" s="2">
         <v>0.60283699999999996</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <v>0.64915100000000003</v>
+      </c>
       <c r="AA25">
         <v>4</v>
       </c>
@@ -2848,6 +1705,9 @@
       </c>
       <c r="AD25" s="2">
         <v>0.59405399999999997</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0.64893599999999996</v>
       </c>
     </row>
     <row r="26" spans="6:31" x14ac:dyDescent="0.2">
@@ -2893,7 +1753,9 @@
       <c r="W26" s="2">
         <v>0.59950899999999996</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>0.64861800000000003</v>
+      </c>
       <c r="AA26">
         <v>5</v>
       </c>
@@ -2905,6 +1767,9 @@
       </c>
       <c r="AD26" s="2">
         <v>0.59363699999999997</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0.64849900000000005</v>
       </c>
     </row>
     <row r="27" spans="6:31" x14ac:dyDescent="0.2">
@@ -2954,14 +1819,17 @@
         <v>0.66741640000000002</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" ref="V27:W27" si="9">AVERAGE(V22:V26)</f>
+        <f t="shared" ref="V27:X27" si="9">AVERAGE(V22:V26)</f>
         <v>0.61265040000000004</v>
       </c>
       <c r="W27" s="3">
         <f t="shared" si="9"/>
         <v>0.60164059999999997</v>
       </c>
-      <c r="X27" s="3"/>
+      <c r="X27" s="3">
+        <f t="shared" si="9"/>
+        <v>0.65167959999999991</v>
+      </c>
       <c r="AA27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2970,14 +1838,17 @@
         <v>0.66614640000000003</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AD27" si="10">AVERAGE(AC22:AC26)</f>
+        <f t="shared" ref="AC27:AE27" si="10">AVERAGE(AC22:AC26)</f>
         <v>0.60393560000000002</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="10"/>
         <v>0.59409840000000003</v>
       </c>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.64858220000000011</v>
+      </c>
     </row>
     <row r="28" spans="6:31" x14ac:dyDescent="0.2">
       <c r="F28" s="1" t="s">
@@ -3026,14 +1897,17 @@
         <v>2.688947340503334E-3</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" ref="V28:W28" si="13">STDEV(V22:V26)</f>
+        <f t="shared" ref="V28:X28" si="13">STDEV(V22:V26)</f>
         <v>3.4405081456087413E-3</v>
       </c>
       <c r="W28" s="3">
         <f t="shared" si="13"/>
         <v>3.6374277724788018E-3</v>
       </c>
-      <c r="X28" s="3"/>
+      <c r="X28" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5631096085893032E-3</v>
+      </c>
       <c r="AA28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3042,14 +1916,17 @@
         <v>7.6735409036507972E-4</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AD28" si="14">STDEV(AC22:AC26)</f>
+        <f t="shared" ref="AC28:AE28" si="14">STDEV(AC22:AC26)</f>
         <v>2.3418432910850791E-4</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="14"/>
         <v>4.5148012137855508E-4</v>
       </c>
-      <c r="AE28" s="1"/>
+      <c r="AE28" s="3">
+        <f t="shared" si="14"/>
+        <v>2.303968315754117E-4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3073,10 +1950,10 @@
   <dimension ref="F8:AA59"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
@@ -5642,49 +4519,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="149" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="148" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="147" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="146" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="145" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="144" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="143" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="142" priority="23" percent="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="23" percent="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="141" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="140" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W59">
-    <cfRule type="top10" dxfId="139" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:X59">
-    <cfRule type="top10" dxfId="138" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y59">
-    <cfRule type="top10" dxfId="137" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z59">
-    <cfRule type="top10" dxfId="136" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA59">
-    <cfRule type="top10" dxfId="135" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5695,11 +4572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
@@ -8265,49 +7142,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="43" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="42" priority="29" percent="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="29" percent="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="41" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="40" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="39" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="38" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="37" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="36" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="23" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="35" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="34" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W59">
-    <cfRule type="top10" dxfId="33" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:X59">
-    <cfRule type="top10" dxfId="32" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y59">
-    <cfRule type="top10" dxfId="31" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z59">
-    <cfRule type="top10" dxfId="30" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA59">
-    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment/baseline.xlsx
+++ b/experiment/baseline.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziaoang/Documents/git/cikm16/experiment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27500" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27495" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>ml-1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,11 +154,15 @@
     <t>MAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ml-100k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
@@ -804,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:AE28"/>
+  <dimension ref="F8:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
@@ -820,557 +819,665 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="AA8" s="4" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AD8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="6:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>11</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>3</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s">
         <v>0</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
         <v>1</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>2</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>3</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="s">
         <v>0</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>1</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AH9" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="2">
+        <v>0.90877799999999997</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.85553800000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>0.80925499999999995</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>0.80301100000000003</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>0.86306300000000002</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
+        <v>0.98363500000000004</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.863317</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.80286500000000005</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.795686</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.84780299999999997</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.90781999999999996</v>
+      </c>
+      <c r="X10" s="2">
         <v>0.84607399999999999</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Y10" s="2">
         <v>0.79370799999999997</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Z10" s="2">
         <v>0.78662600000000005</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="AA10" s="2">
         <v>0.84062999999999999</v>
       </c>
-      <c r="T10">
+      <c r="AD10">
         <v>1</v>
       </c>
-      <c r="U10" s="2">
-        <v>0.863317</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0.80286500000000005</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.795686</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0.84780299999999997</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2">
+      <c r="AE10" s="2">
+        <v>0.90383899999999995</v>
+      </c>
+      <c r="AF10" s="2">
         <v>0.84599000000000002</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AG10" s="2">
         <v>0.78675300000000004</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AH10" s="2">
         <v>0.77964599999999995</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AI10" s="2">
         <v>0.83581000000000005</v>
       </c>
     </row>
-    <row r="11" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" s="2">
+        <v>0.90291600000000005</v>
+      </c>
+      <c r="H11" s="2">
         <v>0.85528700000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0.80827300000000002</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0.80239300000000002</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>0.86293699999999995</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
+        <v>0.98206800000000005</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.86504400000000004</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.80311100000000002</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.79227099999999995</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.84659499999999999</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.90334400000000004</v>
+      </c>
+      <c r="X11" s="2">
         <v>0.84408899999999998</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Y11" s="2">
         <v>0.79306600000000005</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Z11" s="2">
         <v>0.78591699999999998</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="AA11" s="2">
         <v>0.84054499999999999</v>
       </c>
-      <c r="T11">
+      <c r="AD11">
         <v>2</v>
       </c>
-      <c r="U11" s="2">
-        <v>0.86504400000000004</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0.80311100000000002</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.79227099999999995</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.84659499999999999</v>
-      </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="2">
+      <c r="AE11" s="2">
+        <v>0.89300199999999996</v>
+      </c>
+      <c r="AF11" s="2">
         <v>0.84768299999999996</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AG11" s="2">
         <v>0.785964</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AH11" s="2">
         <v>0.77844599999999997</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AI11" s="2">
         <v>0.83561099999999999</v>
       </c>
     </row>
-    <row r="12" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" s="2">
+        <v>0.90576900000000005</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.85670199999999996</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.809168</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>0.80205099999999996</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0.86274200000000001</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
+        <v>0.97237200000000001</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.86414899999999994</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.80318999999999996</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.79381199999999996</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.850325</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.89759800000000001</v>
+      </c>
+      <c r="X12" s="2">
         <v>0.84680500000000003</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Y12" s="2">
         <v>0.79366099999999995</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Z12" s="2">
         <v>0.78564100000000003</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="AA12" s="2">
         <v>0.84065599999999996</v>
       </c>
-      <c r="T12">
+      <c r="AD12">
         <v>3</v>
       </c>
-      <c r="U12" s="2">
-        <v>0.86414899999999994</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0.80318999999999996</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0.79381199999999996</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0.850325</v>
-      </c>
-      <c r="AA12">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="2">
+      <c r="AE12" s="2">
+        <v>0.89103200000000005</v>
+      </c>
+      <c r="AF12" s="2">
         <v>0.84626400000000002</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AG12" s="2">
         <v>0.78673800000000005</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AH12" s="2">
         <v>0.77855300000000005</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AI12" s="2">
         <v>0.83538299999999999</v>
       </c>
     </row>
-    <row r="13" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="2">
+        <v>0.91355900000000001</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.853325</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>0.80918299999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0.80198999999999998</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>0.86330200000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
+        <v>0.99522600000000006</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.86224000000000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.80131600000000003</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.792879</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.84899199999999997</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.90995999999999999</v>
+      </c>
+      <c r="X13" s="2">
         <v>0.84337799999999996</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Y13" s="2">
         <v>0.79419700000000004</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Z13" s="2">
         <v>0.78581199999999995</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="AA13" s="2">
         <v>0.84086700000000003</v>
       </c>
-      <c r="T13">
+      <c r="AD13">
         <v>4</v>
       </c>
-      <c r="U13" s="2">
-        <v>0.86224000000000001</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0.80131600000000003</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0.792879</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0.84899199999999997</v>
-      </c>
-      <c r="AA13">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="2">
+      <c r="AE13" s="2">
+        <v>0.90635900000000003</v>
+      </c>
+      <c r="AF13" s="2">
         <v>0.84457899999999997</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AG13" s="2">
         <v>0.78698400000000002</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AH13" s="2">
         <v>0.77853499999999998</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AI13" s="2">
         <v>0.83605200000000002</v>
       </c>
     </row>
-    <row r="14" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" s="2">
+        <v>0.90826399999999996</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.85592900000000005</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>0.80895099999999998</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>0.80205700000000002</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>0.86293600000000004</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
+        <v>0.97219599999999995</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.86597900000000005</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.80037599999999998</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.79783700000000002</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.84870999999999996</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.90096900000000002</v>
+      </c>
+      <c r="X14" s="2">
         <v>0.84626299999999999</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Y14" s="2">
         <v>0.79327400000000003</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Z14" s="2">
         <v>0.78578800000000004</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="AA14" s="2">
         <v>0.84048900000000004</v>
       </c>
-      <c r="T14">
+      <c r="AD14">
         <v>5</v>
       </c>
-      <c r="U14" s="2">
-        <v>0.86597900000000005</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0.80037599999999998</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0.79783700000000002</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0.84870999999999996</v>
-      </c>
-      <c r="AA14">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AE14" s="2">
+        <v>0.89632999999999996</v>
+      </c>
+      <c r="AF14" s="2">
         <v>0.84567999999999999</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AG14" s="2">
         <v>0.78659199999999996</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AH14" s="2">
         <v>0.77828699999999995</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AI14" s="2">
         <v>0.83556699999999995</v>
       </c>
     </row>
-    <row r="15" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE(G10:G14)</f>
-        <v>0.8553561999999999</v>
+        <v>0.90785720000000014</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE(H10:H14)</f>
-        <v>0.80896600000000007</v>
+        <v>0.8553561999999999</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(I10:I14)</f>
-        <v>0.80230040000000002</v>
+        <v>0.80896600000000007</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE(J10:J14)</f>
+        <v>0.80230040000000002</v>
+      </c>
+      <c r="K15" s="3">
+        <f>AVERAGE(K10:K14)</f>
         <v>0.8629960000000001</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="3">
-        <f>AVERAGE(N10:N14)</f>
+      <c r="O15" s="3">
+        <f>AVERAGE(O10:O14)</f>
+        <v>0.98109940000000007</v>
+      </c>
+      <c r="P15" s="3">
+        <f>AVERAGE(P10:P14)</f>
+        <v>0.86414579999999996</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" ref="Q15:S15" si="0">AVERAGE(Q10:Q14)</f>
+        <v>0.80217159999999998</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79449700000000001</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84848499999999993</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="3">
+        <f>AVERAGE(W10:W14)</f>
+        <v>0.90393820000000003</v>
+      </c>
+      <c r="X15" s="3">
+        <f>AVERAGE(X10:X14)</f>
         <v>0.84532180000000001</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15:Q15" si="0">AVERAGE(O10:O14)</f>
+      <c r="Y15" s="3">
+        <f t="shared" ref="Y15:AA15" si="1">AVERAGE(Y10:Y14)</f>
         <v>0.79358119999999999</v>
       </c>
-      <c r="P15" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z15" s="3">
+        <f t="shared" si="1"/>
         <v>0.78595680000000001</v>
       </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="0"/>
+      <c r="AA15" s="3">
+        <f t="shared" si="1"/>
         <v>0.84063739999999998</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="3">
-        <f>AVERAGE(U10:U14)</f>
-        <v>0.86414579999999996</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" ref="V15:X15" si="1">AVERAGE(V10:V14)</f>
-        <v>0.80217159999999998</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79449700000000001</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.84848499999999993</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="3">
-        <f>AVERAGE(AB10:AB14)</f>
+      <c r="AE15" s="3">
+        <f>AVERAGE(AE10:AE14)</f>
+        <v>0.89811239999999992</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>AVERAGE(AF10:AF14)</f>
         <v>0.8460392000000001</v>
       </c>
-      <c r="AC15" s="3">
-        <f t="shared" ref="AC15:AE15" si="2">AVERAGE(AC10:AC14)</f>
+      <c r="AG15" s="3">
+        <f t="shared" ref="AG15:AI15" si="2">AVERAGE(AG10:AG14)</f>
         <v>0.78660619999999992</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AH15" s="3">
         <f t="shared" si="2"/>
         <v>0.77869339999999987</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AI15" s="3">
         <f t="shared" si="2"/>
         <v>0.83568459999999989</v>
       </c>
     </row>
-    <row r="16" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="3">
         <f>STDEV(G10:G14)</f>
+        <v>3.9465148802455855E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <f>STDEV(H10:H14)</f>
         <v>1.2552779373509245E-3</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" ref="H16:J16" si="3">STDEV(H10:H14)</f>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:K16" si="3">STDEV(I10:I14)</f>
         <v>4.0369790685608475E-4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>4.2758601473857585E-4</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="3"/>
         <v>2.0598665005286648E-4</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="3">
-        <f>STDEV(N10:N14)</f>
+      <c r="O16" s="3">
+        <f>STDEV(O10:O14)</f>
+        <v>9.5179609581044523E-3</v>
+      </c>
+      <c r="P16" s="3">
+        <f>STDEV(P10:P14)</f>
+        <v>1.4565694971404759E-3</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16:S16" si="4">STDEV(Q10:Q14)</f>
+        <v>1.2606194112419558E-3</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2699970264297934E-3</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3901886562621665E-3</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="3">
+        <f>STDEV(W10:W14)</f>
+        <v>5.0174147925002013E-3</v>
+      </c>
+      <c r="X16" s="3">
+        <f>STDEV(X10:X14)</f>
         <v>1.4958023599393286E-3</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" ref="O16:Q16" si="4">STDEV(O10:O14)</f>
+      <c r="Y16" s="3">
+        <f t="shared" ref="Y16:AA16" si="5">STDEV(Y10:Y14)</f>
         <v>4.3630803338924558E-4</v>
       </c>
-      <c r="P16" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="5"/>
         <v>3.8684712742892473E-4</v>
       </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="4"/>
+      <c r="AA16" s="3">
+        <f t="shared" si="5"/>
         <v>1.4463505799079543E-4</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="3">
-        <f>STDEV(U10:U14)</f>
-        <v>1.4565694971404759E-3</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" ref="V16:X16" si="5">STDEV(V10:V14)</f>
-        <v>1.2606194112419558E-3</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="5"/>
-        <v>2.2699970264297934E-3</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3901886562621665E-3</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="3">
-        <f>STDEV(AB10:AB14)</f>
+      <c r="AE16" s="3">
+        <f>STDEV(AE10:AE14)</f>
+        <v>6.7124057013860485E-3</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>STDEV(AF10:AF14)</f>
         <v>1.1198485165414102E-3</v>
       </c>
-      <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AE16" si="6">STDEV(AC10:AC14)</f>
+      <c r="AG16" s="3">
+        <f t="shared" ref="AG16:AI16" si="6">STDEV(AG10:AG14)</f>
         <v>3.8544675378061053E-4</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AH16" s="3">
         <f t="shared" si="6"/>
         <v>5.4282068862561601E-4</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AI16" s="3">
         <f t="shared" si="6"/>
         <v>2.5540027407975073E-4</v>
       </c>
     </row>
-    <row r="20" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1378,566 +1485,674 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="T20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="AA20" s="4" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AD20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="6:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+    </row>
+    <row r="21" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>2</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" t="s">
         <v>6</v>
       </c>
-      <c r="N21" t="s">
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Y21" t="s">
         <v>1</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Z21" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="AA21" t="s">
         <v>12</v>
       </c>
-      <c r="T21" t="s">
+      <c r="AD21" t="s">
         <v>3</v>
       </c>
-      <c r="U21" t="s">
+      <c r="AE21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="s">
         <v>0</v>
       </c>
-      <c r="V21" t="s">
+      <c r="AG21" t="s">
         <v>1</v>
       </c>
-      <c r="W21" t="s">
+      <c r="AH21" t="s">
         <v>2</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AI21" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2">
+        <v>0.72166699999999995</v>
+      </c>
+      <c r="H22" s="2">
         <v>0.68201599999999996</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>0.63136899999999996</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>0.62346199999999996</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>0.68217499999999998</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
+        <v>0.75056100000000003</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.66872100000000001</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.61580900000000005</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.60751900000000003</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.64912499999999995</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.70738800000000002</v>
+      </c>
+      <c r="X22" s="2">
         <v>0.66189699999999996</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Y22" s="2">
         <v>0.60692699999999999</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Z22" s="2">
         <v>0.59766900000000001</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="AA22" s="2">
         <v>0.64810400000000001</v>
       </c>
-      <c r="T22">
+      <c r="AD22">
         <v>1</v>
       </c>
-      <c r="U22" s="2">
-        <v>0.66872100000000001</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.61580900000000005</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0.60751900000000003</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0.64912499999999995</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="2">
+      <c r="AE22" s="2">
+        <v>0.71277599999999997</v>
+      </c>
+      <c r="AF22" s="2">
         <v>0.66632000000000002</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AG22" s="2">
         <v>0.60406400000000005</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AH22" s="2">
         <v>0.59483699999999995</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AI22" s="2">
         <v>0.64861100000000005</v>
       </c>
     </row>
-    <row r="23" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" s="2">
+        <v>0.72089400000000003</v>
+      </c>
+      <c r="H23" s="2">
         <v>0.68105300000000002</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>0.63064100000000001</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>0.62290500000000004</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>0.68215899999999996</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
+        <v>0.75625699999999996</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.66455500000000001</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.61653400000000003</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.59946500000000003</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.65202199999999999</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.70694400000000002</v>
+      </c>
+      <c r="X23" s="2">
         <v>0.65976199999999996</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Y23" s="2">
         <v>0.60660999999999998</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Z23" s="2">
         <v>0.59698399999999996</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="AA23" s="2">
         <v>0.64800000000000002</v>
       </c>
-      <c r="T23">
+      <c r="AD23">
         <v>2</v>
       </c>
-      <c r="U23" s="2">
-        <v>0.66455500000000001</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.61653400000000003</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0.59946500000000003</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0.65202199999999999</v>
-      </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="2">
+      <c r="AE23" s="2">
+        <v>0.70824100000000001</v>
+      </c>
+      <c r="AF23" s="2">
         <v>0.66705999999999999</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AG23" s="2">
         <v>0.60359399999999996</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AH23" s="2">
         <v>0.59386399999999995</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AI23" s="2">
         <v>0.64856400000000003</v>
       </c>
     </row>
-    <row r="24" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" s="2">
+        <v>0.72211599999999998</v>
+      </c>
+      <c r="H24" s="2">
         <v>0.68254999999999999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>0.63108699999999995</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>0.62276799999999999</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>0.68193999999999999</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>3</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
+        <v>0.74839199999999995</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.67120199999999997</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.60869700000000004</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.59887299999999999</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.65948200000000001</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.70432300000000003</v>
+      </c>
+      <c r="X24" s="2">
         <v>0.66210800000000003</v>
       </c>
-      <c r="O24" s="2">
+      <c r="Y24" s="2">
         <v>0.60662300000000002</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Z24" s="2">
         <v>0.59700900000000001</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="AA24" s="2">
         <v>0.64798699999999998</v>
       </c>
-      <c r="T24">
+      <c r="AD24">
         <v>3</v>
       </c>
-      <c r="U24" s="2">
-        <v>0.67120199999999997</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0.60869700000000004</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0.59887299999999999</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0.65948200000000001</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AE24" s="2">
+        <v>0.70552599999999999</v>
+      </c>
+      <c r="AF24" s="2">
         <v>0.66663499999999998</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AG24" s="2">
         <v>0.60379700000000003</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AH24" s="2">
         <v>0.59409999999999996</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AI24" s="2">
         <v>0.64830100000000002</v>
       </c>
     </row>
-    <row r="25" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" s="2">
+        <v>0.72457400000000005</v>
+      </c>
+      <c r="H25" s="2">
         <v>0.68062100000000003</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>0.63124499999999995</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>0.62273599999999996</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>0.68244400000000005</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
+        <v>0.75917100000000004</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.66524899999999998</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.61207800000000001</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.60283699999999996</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.64915100000000003</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0.70922600000000002</v>
+      </c>
+      <c r="X25" s="2">
         <v>0.66016900000000001</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Y25" s="2">
         <v>0.60713600000000001</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Z25" s="2">
         <v>0.59709199999999996</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="AA25" s="2">
         <v>0.64836499999999997</v>
       </c>
-      <c r="T25">
+      <c r="AD25">
         <v>4</v>
       </c>
-      <c r="U25" s="2">
-        <v>0.66524899999999998</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0.61207800000000001</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0.60283699999999996</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0.64915100000000003</v>
-      </c>
-      <c r="AA25">
-        <v>4</v>
-      </c>
-      <c r="AB25" s="2">
+      <c r="AE25" s="2">
+        <v>0.71469700000000003</v>
+      </c>
+      <c r="AF25" s="2">
         <v>0.66542999999999997</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AG25" s="2">
         <v>0.60416199999999998</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AH25" s="2">
         <v>0.59405399999999997</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AI25" s="2">
         <v>0.64893599999999996</v>
       </c>
     </row>
-    <row r="26" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" s="2">
+        <v>0.72163699999999997</v>
+      </c>
+      <c r="H26" s="2">
         <v>0.68164100000000005</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>0.631189</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>0.62245899999999998</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>0.68213299999999999</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
+        <v>0.74516300000000002</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.66735500000000003</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.61013399999999995</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.59950899999999996</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.64861800000000003</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0.70488200000000001</v>
+      </c>
+      <c r="X26" s="2">
         <v>0.66059400000000001</v>
       </c>
-      <c r="O26" s="2">
+      <c r="Y26" s="2">
         <v>0.606711</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Z26" s="2">
         <v>0.596827</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="AA26" s="2">
         <v>0.64800800000000003</v>
       </c>
-      <c r="T26">
+      <c r="AD26">
         <v>5</v>
       </c>
-      <c r="U26" s="2">
-        <v>0.66735500000000003</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0.61013399999999995</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0.59950899999999996</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0.64861800000000003</v>
-      </c>
-      <c r="AA26">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="2">
+      <c r="AE26" s="2">
+        <v>0.70878399999999997</v>
+      </c>
+      <c r="AF26" s="2">
         <v>0.66528699999999996</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AG26" s="2">
         <v>0.60406099999999996</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AH26" s="2">
         <v>0.59363699999999997</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AI26" s="2">
         <v>0.64849900000000005</v>
       </c>
     </row>
-    <row r="27" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
         <f>AVERAGE(G22:G26)</f>
+        <v>0.72217759999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <f>AVERAGE(H22:H26)</f>
         <v>0.68157619999999997</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" ref="H27:J27" si="7">AVERAGE(H22:H26)</f>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27:K27" si="7">AVERAGE(I22:I26)</f>
         <v>0.63110619999999995</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="7"/>
         <v>0.62286599999999992</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <f t="shared" si="7"/>
         <v>0.68217019999999995</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="3">
+        <f>AVERAGE(O22:O26)</f>
+        <v>0.75190880000000004</v>
+      </c>
+      <c r="P27" s="3">
+        <f>AVERAGE(P22:P26)</f>
+        <v>0.66741640000000002</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" ref="Q27:S27" si="8">AVERAGE(Q22:Q26)</f>
+        <v>0.61265040000000004</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60164059999999997</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65167959999999991</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
-        <f>AVERAGE(N22:N26)</f>
+      <c r="W27" s="3">
+        <f>AVERAGE(W22:W26)</f>
+        <v>0.70655259999999998</v>
+      </c>
+      <c r="X27" s="3">
+        <f>AVERAGE(X22:X26)</f>
         <v>0.66090599999999999</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" ref="O27:Q27" si="8">AVERAGE(O22:O26)</f>
+      <c r="Y27" s="3">
+        <f t="shared" ref="Y27:AA27" si="9">AVERAGE(Y22:Y26)</f>
         <v>0.60680139999999994</v>
       </c>
-      <c r="P27" s="3">
-        <f t="shared" si="8"/>
+      <c r="Z27" s="3">
+        <f t="shared" si="9"/>
         <v>0.59711619999999999</v>
       </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="8"/>
+      <c r="AA27" s="3">
+        <f t="shared" si="9"/>
         <v>0.64809280000000002</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="3">
-        <f>AVERAGE(U22:U26)</f>
-        <v>0.66741640000000002</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" ref="V27:X27" si="9">AVERAGE(V22:V26)</f>
-        <v>0.61265040000000004</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="9"/>
-        <v>0.60164059999999997</v>
-      </c>
-      <c r="X27" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65167959999999991</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="3">
-        <f>AVERAGE(AB22:AB26)</f>
+      <c r="AE27" s="3">
+        <f>AVERAGE(AE22:AE26)</f>
+        <v>0.71000479999999999</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>AVERAGE(AF22:AF26)</f>
         <v>0.66614640000000003</v>
       </c>
-      <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AE27" si="10">AVERAGE(AC22:AC26)</f>
+      <c r="AG27" s="3">
+        <f t="shared" ref="AG27:AI27" si="10">AVERAGE(AG22:AG26)</f>
         <v>0.60393560000000002</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AH27" s="3">
         <f t="shared" si="10"/>
         <v>0.59409840000000003</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AI27" s="3">
         <f t="shared" si="10"/>
         <v>0.64858220000000011</v>
       </c>
     </row>
-    <row r="28" spans="6:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:35" x14ac:dyDescent="0.2">
       <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="3">
         <f>STDEV(G22:G26)</f>
+        <v>1.4095315888620801E-3</v>
+      </c>
+      <c r="H28" s="3">
+        <f>STDEV(H22:H26)</f>
         <v>7.6355333801900638E-4</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" ref="H28:J28" si="11">STDEV(H22:H26)</f>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:K28" si="11">STDEV(I22:I26)</f>
         <v>2.7926904590374756E-4</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <f t="shared" si="11"/>
         <v>3.7043555444907781E-4</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <f t="shared" si="11"/>
         <v>1.7992415068580529E-4</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="3">
-        <f>STDEV(N22:N26)</f>
+      <c r="O28" s="3">
+        <f>STDEV(O22:O26)</f>
+        <v>5.7301103130742654E-3</v>
+      </c>
+      <c r="P28" s="3">
+        <f>STDEV(P22:P26)</f>
+        <v>2.688947340503334E-3</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28:S28" si="12">STDEV(Q22:Q26)</f>
+        <v>3.4405081456087413E-3</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="12"/>
+        <v>3.6374277724788018E-3</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="12"/>
+        <v>4.5631096085893032E-3</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="3">
+        <f>STDEV(W22:W26)</f>
+        <v>1.9849543571578659E-3</v>
+      </c>
+      <c r="X28" s="3">
+        <f>STDEV(X22:X26)</f>
         <v>1.0459605633101163E-3</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" ref="O28:Q28" si="12">STDEV(O22:O26)</f>
+      <c r="Y28" s="3">
+        <f t="shared" ref="Y28:AA28" si="13">STDEV(Y22:Y26)</f>
         <v>2.2603384702296408E-4</v>
       </c>
-      <c r="P28" s="3">
-        <f t="shared" si="12"/>
+      <c r="Z28" s="3">
+        <f t="shared" si="13"/>
         <v>3.2356560385801936E-4</v>
       </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="12"/>
+      <c r="AA28" s="3">
+        <f t="shared" si="13"/>
         <v>1.5907136763099384E-4</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="3">
-        <f>STDEV(U22:U26)</f>
-        <v>2.688947340503334E-3</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" ref="V28:X28" si="13">STDEV(V22:V26)</f>
-        <v>3.4405081456087413E-3</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="13"/>
-        <v>3.6374277724788018E-3</v>
-      </c>
-      <c r="X28" s="3">
-        <f t="shared" si="13"/>
-        <v>4.5631096085893032E-3</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="3">
-        <f>STDEV(AB22:AB26)</f>
+      <c r="AE28" s="3">
+        <f>STDEV(AE22:AE26)</f>
+        <v>3.6863695826653158E-3</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>STDEV(AF22:AF26)</f>
         <v>7.6735409036507972E-4</v>
       </c>
-      <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AE28" si="14">STDEV(AC22:AC26)</f>
+      <c r="AG28" s="3">
+        <f t="shared" ref="AG28:AI28" si="14">STDEV(AG22:AG26)</f>
         <v>2.3418432910850791E-4</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AH28" s="3">
         <f t="shared" si="14"/>
         <v>4.5148012137855508E-4</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AI28" s="3">
         <f t="shared" si="14"/>
         <v>2.303968315754117E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AD20:AI20"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N20:S20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,7 +2168,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
@@ -4576,7 +4791,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
